--- a/src/main/resources/excel/inventory-monitoring-sheet.xlsx
+++ b/src/main/resources/excel/inventory-monitoring-sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ\git\jchs-pos-inventory-scanner\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ECB882-FE98-4179-B236-9F760DFFB534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E707B912-C0C7-4856-A537-AA4D88705059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{135519FD-2E8D-4A04-8309-DFE38AE38E51}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{135519FD-2E8D-4A04-8309-DFE38AE38E51}"/>
   </bookViews>
   <sheets>
     <sheet name="IMS" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +199,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -372,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -392,18 +399,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -429,10 +431,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -751,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5DEA1C-CD11-45EE-8906-80D7DF416DBC}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,18 +842,18 @@
       <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="6" t="s">
         <v>7</v>
       </c>
@@ -853,382 +867,382 @@
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="15" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
     </row>
     <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
@@ -1337,33 +1351,33 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="C23:L23"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"JCHS GROCERY
 INVENTORY MONITORING SHEET
@@ -1390,47 +1404,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B12">
@@ -1438,10 +1452,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
     </row>
